--- a/data/trans_dic/P35-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P35-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,52; 21,97</t>
+          <t>14,5; 21,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,3; 31,21</t>
+          <t>21,82; 31,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,19; 35,5</t>
+          <t>26,24; 36,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,06; 39,1</t>
+          <t>30,26; 38,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,26; 21,41</t>
+          <t>12,43; 21,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,34; 34,45</t>
+          <t>23,29; 34,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,39; 34,51</t>
+          <t>24,23; 34,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,36; 31,59</t>
+          <t>24,37; 31,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,64; 20,16</t>
+          <t>14,58; 20,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,54; 30,35</t>
+          <t>23,91; 30,83</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,73; 33,84</t>
+          <t>26,5; 33,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,55; 34,09</t>
+          <t>28,55; 34,17</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,77; 24,27</t>
+          <t>15,73; 24,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,62; 31,2</t>
+          <t>22,1; 31,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,53; 32,95</t>
+          <t>23,11; 32,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,53; 42,73</t>
+          <t>34,04; 43,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,39; 19,08</t>
+          <t>11,56; 19,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,46; 36,56</t>
+          <t>24,96; 36,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,39; 36,12</t>
+          <t>25,99; 36,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,37; 41,5</t>
+          <t>33,7; 41,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,5; 20,46</t>
+          <t>14,46; 20,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,57; 31,53</t>
+          <t>24,53; 31,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26,17; 32,68</t>
+          <t>26,1; 32,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>34,86; 41,42</t>
+          <t>34,94; 41,06</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,19; 24,58</t>
+          <t>16,95; 24,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,25; 32,94</t>
+          <t>25,35; 33,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,97; 35,99</t>
+          <t>28,16; 36,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,29; 40,13</t>
+          <t>9,22; 40,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,12; 28,82</t>
+          <t>15,09; 28,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,51; 42,49</t>
+          <t>30,14; 42,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,64; 44,01</t>
+          <t>28,72; 44,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,27; 48,05</t>
+          <t>35,59; 48,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,79; 24,2</t>
+          <t>17,82; 23,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,1; 34,6</t>
+          <t>27,96; 34,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>29,59; 37,05</t>
+          <t>29,63; 36,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,64; 40,42</t>
+          <t>11,73; 40,76</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,91; 22,36</t>
+          <t>17,79; 22,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,92; 31,72</t>
+          <t>26,13; 31,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,99; 31,48</t>
+          <t>26,03; 31,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,7; 39,01</t>
+          <t>32,76; 39,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,08; 23,25</t>
+          <t>17,37; 23,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,33; 35,32</t>
+          <t>28,09; 34,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,68; 35,13</t>
+          <t>28,44; 35,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,61; 33,68</t>
+          <t>13,65; 33,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,19; 21,79</t>
+          <t>18,26; 21,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,63; 32,22</t>
+          <t>27,55; 32,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28,02; 32,11</t>
+          <t>27,77; 32,31</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,67; 35,34</t>
+          <t>20,95; 35,19</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,89; 14,87</t>
+          <t>8,53; 15,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,85; 29,88</t>
+          <t>22,09; 30,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,98; 32,39</t>
+          <t>24,91; 32,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28,04; 37,13</t>
+          <t>27,58; 36,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,26; 21,05</t>
+          <t>14,37; 20,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,32; 37,26</t>
+          <t>30,0; 37,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>38,73; 45,85</t>
+          <t>38,7; 46,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,05; 46,0</t>
+          <t>28,57; 45,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,65; 17,63</t>
+          <t>12,87; 17,78</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,17; 33,2</t>
+          <t>27,94; 33,32</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,28; 38,55</t>
+          <t>33,32; 38,95</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>31,39; 41,3</t>
+          <t>30,81; 40,94</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,48; 9,0</t>
+          <t>3,73; 9,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,53; 9,32</t>
+          <t>3,53; 9,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,6; 13,82</t>
+          <t>7,11; 14,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,47; 26,98</t>
+          <t>11,55; 26,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,26; 30,33</t>
+          <t>24,62; 30,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>36,28; 42,54</t>
+          <t>36,15; 42,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>31,98; 38,19</t>
+          <t>32,21; 38,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>38,43; 45,25</t>
+          <t>38,09; 44,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,16; 25,48</t>
+          <t>21,23; 25,52</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>30,2; 35,68</t>
+          <t>30,29; 35,52</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>27,56; 32,51</t>
+          <t>27,5; 32,81</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>32,77; 38,96</t>
+          <t>32,66; 38,87</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,23; 18,91</t>
+          <t>16,16; 18,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>24,39; 27,55</t>
+          <t>24,32; 27,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,25; 29,44</t>
+          <t>26,33; 29,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,08; 35,05</t>
+          <t>24,19; 34,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,2; 23,12</t>
+          <t>20,21; 23,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,56; 35,93</t>
+          <t>32,6; 36,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,2; 36,44</t>
+          <t>33,2; 36,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>28,84; 37,96</t>
+          <t>28,12; 38,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,64; 20,58</t>
+          <t>18,64; 20,74</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>29,03; 31,44</t>
+          <t>29,13; 31,42</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>30,15; 32,5</t>
+          <t>30,3; 32,71</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>29,32; 35,83</t>
+          <t>29,06; 35,77</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que su médico le ha aconsejado hacer algún tipo de ejercicio físico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>80548</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>111881</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>129626</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>172798</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>48679</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>86287</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>100287</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>124547</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>129227</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>198168</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>229913</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>297344</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>65978; 97684</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>93285; 133708</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>111113; 152510</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>152856; 194864</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>36562; 63124</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>70875; 104310</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>83340; 117693</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>109069; 140673</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>109228; 153841</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>174983; 225608</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>203370; 257332</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>272003; 325483</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>67925</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>105104</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>103267</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>174339</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>51050</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>100667</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>112409</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>142956</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>118975</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>205771</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>215675</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>317295</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>54731; 84484</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>89202; 127435</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>85221; 120801</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>153948; 196782</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>39711; 66583</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>82160; 119180</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>95121; 132384</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>128650; 160259</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>99934; 141398</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>179737; 233873</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>191789; 241931</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>291356; 342435</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>106559</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>175477</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>164537</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>164327</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>33673</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>92264</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>59710</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>69177</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>140233</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>267741</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>224247</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>233504</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>87438; 124596</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>153848; 201203</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>144640; 188425</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>61597; 269162</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>24414; 45800</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>77149; 108356</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>47136; 72675</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>59403; 80185</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>120772; 161198</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>241224; 293888</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>200831; 250282</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>97950; 340386</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>237138</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>324019</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>327850</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>371135</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>136259</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>233588</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>258482</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>252707</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>373397</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>557607</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>586331</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>623842</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>210453; 265884</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>294141; 355829</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>296255; 357204</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>339022; 407220</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>117989; 156727</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>208601; 259264</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>231635; 287645</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>133284; 328390</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>340100; 407432</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>514670; 601308</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>542204; 630808</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>421350; 707722</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>782</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>37999</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>130383</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>174103</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>152589</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>94441</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>249443</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>308515</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>339448</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>132440</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>379826</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>482618</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>492037</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>28360; 51770</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>111479; 151446</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>151664; 195998</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>131005; 174769</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>77307; 112094</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>221647; 276992</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>283410; 339147</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>239691; 384846</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>111995; 154821</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>347403; 414302</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>446809; 522292</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>404796; 537966</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>17152</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>15160</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>27624</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>42534</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>327504</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>421096</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>373999</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>315571</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>344656</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>436256</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>401622</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>358105</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>10714; 28075</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8965; 23918</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>19770; 41333</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>27788; 62564</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>292952; 357503</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>388375; 455042</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>342803; 405249</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>289659; 341173</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>313629; 376907</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>402339; 471833</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>369218; 440437</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>326939; 389111</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1271</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1087</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1119</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2048</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1231</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1875</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>3319</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>547321</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>862024</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>927006</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1077723</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>691606</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1183345</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1213401</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1244405</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1238927</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2045369</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2140407</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2322128</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>504178; 587330</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>808004; 917677</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>876881; 980970</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>816632; 1179208</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>648121; 742525</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1123125; 1240312</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1157198; 1276417</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1004297; 1357447</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1179381; 1312317</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1971456; 2126668</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2065070; 2229699</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2018866; 2485436</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P35-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P35-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
